--- a/Data/EUDA/Cannabis_detaille/statut_pro_global.xlsx
+++ b/Data/EUDA/Cannabis_detaille/statut_pro_global.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,47 +441,42 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year of Treatment</t>
+          <t>Occasionally employed.global</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Occasionally employed</t>
+          <t>Regularly employed.global</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Regularly employed</t>
+          <t>Student.global</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>Unemployed / discouraged.global</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Unemployed / discouraged</t>
+          <t>Receiving social benefits / pensioners / house-makers / disable.global</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Receiving social benefits / pensioners / house-makers / disable</t>
+          <t>Other.global</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Not known / missing.global</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Not known / missing</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
+          <t>Total.global</t>
         </is>
       </c>
     </row>
@@ -492,30 +487,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>440</v>
       </c>
       <c r="D2" t="n">
-        <v>440</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c r="F2" t="n">
-        <v>287</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>17</v>
+        <v>252</v>
       </c>
       <c r="I2" t="n">
-        <v>252</v>
-      </c>
-      <c r="J2" t="n">
         <v>1124</v>
       </c>
     </row>
@@ -526,30 +518,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2022</v>
+        <v>142</v>
       </c>
       <c r="C3" t="n">
-        <v>142</v>
+        <v>949</v>
       </c>
       <c r="D3" t="n">
-        <v>949</v>
+        <v>776</v>
       </c>
       <c r="E3" t="n">
-        <v>776</v>
+        <v>652</v>
       </c>
       <c r="F3" t="n">
-        <v>652</v>
+        <v>723</v>
       </c>
       <c r="G3" t="n">
-        <v>723</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c r="I3" t="n">
-        <v>209</v>
-      </c>
-      <c r="J3" t="n">
         <v>3501</v>
       </c>
     </row>
@@ -560,30 +549,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F4" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>109</v>
       </c>
     </row>
@@ -594,30 +580,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2022</v>
+        <v>53</v>
       </c>
       <c r="C5" t="n">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D5" t="n">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="E5" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F5" t="n">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I5" t="n">
-        <v>28</v>
-      </c>
-      <c r="J5" t="n">
         <v>478</v>
       </c>
     </row>
@@ -628,30 +611,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="D6" t="n">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="E6" t="n">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F6" t="n">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
         <v>340</v>
       </c>
     </row>
@@ -662,30 +642,27 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2020</v>
+        <v>50</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="D7" t="n">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="E7" t="n">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="F7" t="n">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="G7" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>549</v>
       </c>
       <c r="I7" t="n">
-        <v>549</v>
-      </c>
-      <c r="J7" t="n">
         <v>1072</v>
       </c>
     </row>
@@ -696,30 +673,27 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2022</v>
+        <v>293</v>
       </c>
       <c r="C8" t="n">
-        <v>293</v>
+        <v>571</v>
       </c>
       <c r="D8" t="n">
-        <v>571</v>
+        <v>307</v>
       </c>
       <c r="E8" t="n">
-        <v>307</v>
+        <v>86</v>
       </c>
       <c r="F8" t="n">
-        <v>86</v>
+        <v>1256</v>
       </c>
       <c r="G8" t="n">
-        <v>1256</v>
+        <v>398</v>
       </c>
       <c r="H8" t="n">
-        <v>398</v>
+        <v>174</v>
       </c>
       <c r="I8" t="n">
-        <v>174</v>
-      </c>
-      <c r="J8" t="n">
         <v>3085</v>
       </c>
     </row>
@@ -730,26 +704,23 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2022</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14</v>
+      </c>
+      <c r="F9" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
-        <v>7</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>14</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
+      <c r="I9" t="n">
         <v>26</v>
       </c>
     </row>
@@ -760,30 +731,27 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2021</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14</v>
+      </c>
+      <c r="E10" t="n">
+        <v>31</v>
+      </c>
+      <c r="F10" t="n">
         <v>4</v>
       </c>
-      <c r="D10" t="n">
-        <v>7</v>
-      </c>
-      <c r="E10" t="n">
-        <v>14</v>
-      </c>
-      <c r="F10" t="n">
-        <v>31</v>
-      </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
         <v>62</v>
       </c>
     </row>
@@ -794,30 +762,27 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2021</v>
+        <v>2082</v>
       </c>
       <c r="C11" t="n">
-        <v>2082</v>
+        <v>5041</v>
       </c>
       <c r="D11" t="n">
-        <v>5041</v>
+        <v>3436</v>
       </c>
       <c r="E11" t="n">
-        <v>3436</v>
+        <v>3110</v>
       </c>
       <c r="F11" t="n">
-        <v>3110</v>
+        <v>3990</v>
       </c>
       <c r="G11" t="n">
-        <v>3990</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="I11" t="n">
-        <v>2100</v>
-      </c>
-      <c r="J11" t="n">
         <v>19759</v>
       </c>
     </row>
@@ -827,29 +792,26 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>9354</v>
+      </c>
       <c r="D12" t="n">
-        <v>9354</v>
+        <v>4553</v>
       </c>
       <c r="E12" t="n">
-        <v>4553</v>
+        <v>4957</v>
       </c>
       <c r="F12" t="n">
-        <v>4957</v>
+        <v>2255</v>
       </c>
       <c r="G12" t="n">
-        <v>2255</v>
+        <v>485</v>
       </c>
       <c r="H12" t="n">
-        <v>485</v>
+        <v>1624</v>
       </c>
       <c r="I12" t="n">
-        <v>1624</v>
-      </c>
-      <c r="J12" t="n">
         <v>23228</v>
       </c>
     </row>
@@ -860,30 +822,27 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2022</v>
+        <v>94</v>
       </c>
       <c r="C13" t="n">
-        <v>94</v>
+        <v>287</v>
       </c>
       <c r="D13" t="n">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="E13" t="n">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="F13" t="n">
-        <v>260</v>
+        <v>17</v>
       </c>
       <c r="G13" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
-      </c>
-      <c r="J13" t="n">
         <v>989</v>
       </c>
     </row>
@@ -894,30 +853,27 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="D14" t="n">
-        <v>1750</v>
+        <v>380</v>
       </c>
       <c r="E14" t="n">
-        <v>380</v>
+        <v>299</v>
       </c>
       <c r="F14" t="n">
-        <v>299</v>
+        <v>27</v>
       </c>
       <c r="G14" t="n">
-        <v>27</v>
+        <v>247</v>
       </c>
       <c r="H14" t="n">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="I14" t="n">
-        <v>40</v>
-      </c>
-      <c r="J14" t="n">
         <v>2743</v>
       </c>
     </row>
@@ -928,30 +884,27 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>587</v>
       </c>
       <c r="D15" t="n">
-        <v>587</v>
+        <v>452</v>
       </c>
       <c r="E15" t="n">
-        <v>452</v>
+        <v>885</v>
       </c>
       <c r="F15" t="n">
-        <v>885</v>
+        <v>131</v>
       </c>
       <c r="G15" t="n">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="H15" t="n">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I15" t="n">
-        <v>18</v>
-      </c>
-      <c r="J15" t="n">
         <v>2184</v>
       </c>
     </row>
@@ -962,30 +915,27 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>478</v>
       </c>
       <c r="C16" t="n">
-        <v>478</v>
+        <v>1819</v>
       </c>
       <c r="D16" t="n">
-        <v>1819</v>
+        <v>1405</v>
       </c>
       <c r="E16" t="n">
-        <v>1405</v>
+        <v>1740</v>
       </c>
       <c r="F16" t="n">
-        <v>1740</v>
+        <v>105</v>
       </c>
       <c r="G16" t="n">
-        <v>105</v>
+        <v>212</v>
       </c>
       <c r="H16" t="n">
-        <v>212</v>
+        <v>1757</v>
       </c>
       <c r="I16" t="n">
-        <v>1757</v>
-      </c>
-      <c r="J16" t="n">
         <v>7516</v>
       </c>
     </row>
@@ -996,30 +946,27 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2022</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G17" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H17" t="n">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="I17" t="n">
-        <v>180</v>
-      </c>
-      <c r="J17" t="n">
         <v>241</v>
       </c>
     </row>
@@ -1030,26 +977,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2022</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="n">
         <v>8</v>
       </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
-      </c>
-      <c r="G18" t="n">
-        <v>8</v>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
+      <c r="I18" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1060,30 +1004,27 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
+        <v>50</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>29</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
         <v>6</v>
       </c>
-      <c r="E19" t="n">
-        <v>50</v>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
-      </c>
-      <c r="G19" t="n">
-        <v>29</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
       <c r="I19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J19" t="n">
         <v>108</v>
       </c>
     </row>
@@ -1094,28 +1035,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022</v>
+        <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="D20" t="n">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F20" t="n">
-        <v>45</v>
-      </c>
-      <c r="G20" t="n">
         <v>8</v>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>29</v>
+      </c>
       <c r="I20" t="n">
-        <v>29</v>
-      </c>
-      <c r="J20" t="n">
         <v>233</v>
       </c>
     </row>
@@ -1126,30 +1064,27 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2015</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1157</v>
       </c>
       <c r="D21" t="n">
-        <v>1157</v>
+        <v>195</v>
       </c>
       <c r="E21" t="n">
-        <v>195</v>
+        <v>1434</v>
       </c>
       <c r="F21" t="n">
-        <v>1434</v>
+        <v>645</v>
       </c>
       <c r="G21" t="n">
-        <v>645</v>
+        <v>111</v>
       </c>
       <c r="H21" t="n">
-        <v>111</v>
+        <v>1660</v>
       </c>
       <c r="I21" t="n">
-        <v>1660</v>
-      </c>
-      <c r="J21" t="n">
         <v>5202</v>
       </c>
     </row>
@@ -1167,7 +1102,6 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1176,30 +1110,27 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2022</v>
+        <v>162</v>
       </c>
       <c r="C23" t="n">
-        <v>162</v>
+        <v>307</v>
       </c>
       <c r="D23" t="n">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="E23" t="n">
-        <v>261</v>
+        <v>353</v>
       </c>
       <c r="F23" t="n">
-        <v>353</v>
+        <v>32</v>
       </c>
       <c r="G23" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I23" t="n">
-        <v>17</v>
-      </c>
-      <c r="J23" t="n">
         <v>1165</v>
       </c>
     </row>
@@ -1210,30 +1141,27 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>104</v>
       </c>
       <c r="C24" t="n">
-        <v>104</v>
+        <v>570</v>
       </c>
       <c r="D24" t="n">
-        <v>570</v>
+        <v>164</v>
       </c>
       <c r="E24" t="n">
-        <v>164</v>
+        <v>329</v>
       </c>
       <c r="F24" t="n">
-        <v>329</v>
+        <v>16</v>
       </c>
       <c r="G24" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H24" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I24" t="n">
-        <v>17</v>
-      </c>
-      <c r="J24" t="n">
         <v>1238</v>
       </c>
     </row>
@@ -1244,30 +1172,27 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022</v>
+        <v>850</v>
       </c>
       <c r="C25" t="n">
-        <v>850</v>
+        <v>228</v>
       </c>
       <c r="D25" t="n">
-        <v>228</v>
+        <v>389</v>
       </c>
       <c r="E25" t="n">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="F25" t="n">
-        <v>418</v>
+        <v>16</v>
       </c>
       <c r="G25" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H25" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I25" t="n">
-        <v>33</v>
-      </c>
-      <c r="J25" t="n">
         <v>1976</v>
       </c>
     </row>
@@ -1278,30 +1203,27 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2022</v>
+        <v>54</v>
       </c>
       <c r="C26" t="n">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="D26" t="n">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="E26" t="n">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="F26" t="n">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="G26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H26" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
-      </c>
-      <c r="J26" t="n">
         <v>514</v>
       </c>
     </row>
@@ -1312,28 +1234,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
         <v>0</v>
       </c>
-      <c r="D27" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1344,30 +1263,27 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2021</v>
+        <v>1472</v>
       </c>
       <c r="C28" t="n">
-        <v>1472</v>
+        <v>1821</v>
       </c>
       <c r="D28" t="n">
-        <v>1821</v>
+        <v>2747</v>
       </c>
       <c r="E28" t="n">
-        <v>2747</v>
+        <v>4931</v>
       </c>
       <c r="F28" t="n">
-        <v>4931</v>
+        <v>506</v>
       </c>
       <c r="G28" t="n">
-        <v>506</v>
+        <v>462</v>
       </c>
       <c r="H28" t="n">
-        <v>462</v>
+        <v>411</v>
       </c>
       <c r="I28" t="n">
-        <v>411</v>
-      </c>
-      <c r="J28" t="n">
         <v>12350</v>
       </c>
     </row>
@@ -1378,30 +1294,27 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>3</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G29" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H29" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
         <v>43</v>
       </c>
     </row>
@@ -1412,28 +1325,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2022</v>
+        <v>379</v>
       </c>
       <c r="C30" t="n">
-        <v>379</v>
+        <v>324</v>
       </c>
       <c r="D30" t="n">
-        <v>324</v>
+        <v>78</v>
       </c>
       <c r="E30" t="n">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="F30" t="n">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>10</v>
-      </c>
-      <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
         <v>946</v>
       </c>
     </row>
@@ -1447,7 +1357,6 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1463,7 +1372,6 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1479,7 +1387,6 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1495,7 +1402,6 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1511,7 +1417,6 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1527,7 +1432,6 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
